--- a/Bounded-Storage-Managment-System/inventory.xlsx
+++ b/Bounded-Storage-Managment-System/inventory.xlsx
@@ -397,9 +397,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -502,9 +502,49 @@
         <v>Mike Johnson</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>CMP-005</v>
+      </c>
+      <c r="B6" t="str">
+        <v>diode</v>
+      </c>
+      <c r="C6" t="str">
+        <v>FM</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Issued</v>
+      </c>
+      <c r="E6" t="str">
+        <v>2025-05-23</v>
+      </c>
+      <c r="F6" t="str">
+        <v>smith</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>CMP-006</v>
+      </c>
+      <c r="B7" t="str">
+        <v>diode</v>
+      </c>
+      <c r="C7" t="str">
+        <v>FM</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Issued</v>
+      </c>
+      <c r="E7" t="str">
+        <v>2025-05-24</v>
+      </c>
+      <c r="F7" t="str">
+        <v>John</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F7"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Bounded-Storage-Managment-System/inventory.xlsx
+++ b/Bounded-Storage-Managment-System/inventory.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:AE12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -421,6 +421,81 @@
       <c r="F1" t="str">
         <v>Issued To</v>
       </c>
+      <c r="G1" t="str">
+        <v>Part No</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Part Description</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Issue No</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Issue Date</v>
+      </c>
+      <c r="K1" t="str">
+        <v>Request Text</v>
+      </c>
+      <c r="L1" t="str">
+        <v>Issue For</v>
+      </c>
+      <c r="M1" t="str">
+        <v>System Manager</v>
+      </c>
+      <c r="N1" t="str">
+        <v>Serial No</v>
+      </c>
+      <c r="O1" t="str">
+        <v>S.No as per SO</v>
+      </c>
+      <c r="P1" t="str">
+        <v>Manufacturer</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>Quality Grade</v>
+      </c>
+      <c r="R1" t="str">
+        <v>Sub System</v>
+      </c>
+      <c r="S1" t="str">
+        <v>Quantity Each</v>
+      </c>
+      <c r="T1" t="str">
+        <v>Total Quantity</v>
+      </c>
+      <c r="U1" t="str">
+        <v>SO No</v>
+      </c>
+      <c r="V1" t="str">
+        <v>Storage No</v>
+      </c>
+      <c r="W1" t="str">
+        <v>Storage Date</v>
+      </c>
+      <c r="X1" t="str">
+        <v>SO Number</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>S.No as per PO</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>Grade</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>Storage Quantity</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>Storage Temperature</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>Relative Humidity</v>
+      </c>
+      <c r="AD1" t="str">
+        <v>Storage Data</v>
+      </c>
+      <c r="AE1" t="str">
+        <v>Delivery Date</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -542,9 +617,283 @@
         <v>John</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>CMP-007</v>
+      </c>
+      <c r="B8" t="str">
+        <v>diode</v>
+      </c>
+      <c r="C8" t="str">
+        <v>EM</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Issued</v>
+      </c>
+      <c r="E8" t="str">
+        <v>2025-05-24</v>
+      </c>
+      <c r="F8" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>CMP-008</v>
+      </c>
+      <c r="B9" t="str">
+        <v>diode</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Issued Component</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Issued</v>
+      </c>
+      <c r="E9" t="str">
+        <v>2025-06-01</v>
+      </c>
+      <c r="F9" t="str">
+        <v>akshaya</v>
+      </c>
+      <c r="G9" t="str">
+        <v>12</v>
+      </c>
+      <c r="H9" t="str">
+        <v>diode</v>
+      </c>
+      <c r="I9" t="str">
+        <v>23317909</v>
+      </c>
+      <c r="J9" t="str">
+        <v>2025-06-01</v>
+      </c>
+      <c r="K9" t="str">
+        <v>temporary</v>
+      </c>
+      <c r="L9" t="str">
+        <v>testing</v>
+      </c>
+      <c r="M9" t="str">
+        <v>akshaya</v>
+      </c>
+      <c r="N9" t="str">
+        <v>1</v>
+      </c>
+      <c r="O9" t="str">
+        <v>76889</v>
+      </c>
+      <c r="P9" t="str">
+        <v>factory</v>
+      </c>
+      <c r="Q9" t="str">
+        <v>233e5</v>
+      </c>
+      <c r="R9" t="str">
+        <v>e45r</v>
+      </c>
+      <c r="S9" t="str">
+        <v>5</v>
+      </c>
+      <c r="T9" t="str">
+        <v>1</v>
+      </c>
+      <c r="U9" t="str">
+        <v>5567</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>CMP-009</v>
+      </c>
+      <c r="B10" t="str">
+        <v>diode</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Stored Component</v>
+      </c>
+      <c r="D10" t="str">
+        <v>In Storage</v>
+      </c>
+      <c r="E10" t="str">
+        <v>2025-06-01</v>
+      </c>
+      <c r="G10" t="str">
+        <v>123</v>
+      </c>
+      <c r="H10" t="str">
+        <v>diode</v>
+      </c>
+      <c r="M10" t="str">
+        <v>akshaya</v>
+      </c>
+      <c r="N10" t="str">
+        <v>1</v>
+      </c>
+      <c r="U10" t="str">
+        <v>8945</v>
+      </c>
+      <c r="V10" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="W10" t="str">
+        <v>2025-06-01</v>
+      </c>
+      <c r="X10" t="str">
+        <v>8945</v>
+      </c>
+      <c r="Y10" t="str">
+        <v>12</v>
+      </c>
+      <c r="Z10" t="str">
+        <v>1w3</v>
+      </c>
+      <c r="AA10" t="str">
+        <v>5</v>
+      </c>
+      <c r="AB10" t="str">
+        <v>98</v>
+      </c>
+      <c r="AC10" t="str">
+        <v>32</v>
+      </c>
+      <c r="AD10" t="str">
+        <v>2025-06-01</v>
+      </c>
+      <c r="AE10" t="str">
+        <v>2025-06-10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>CMP-010</v>
+      </c>
+      <c r="B11" t="str">
+        <v>capacitors</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Issued Component</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Issued</v>
+      </c>
+      <c r="E11" t="str">
+        <v>2025-06-01</v>
+      </c>
+      <c r="F11" t="str">
+        <v>Akshaya</v>
+      </c>
+      <c r="G11" t="str">
+        <v>098</v>
+      </c>
+      <c r="H11" t="str">
+        <v>capacitors</v>
+      </c>
+      <c r="I11" t="str">
+        <v>12568905</v>
+      </c>
+      <c r="J11" t="str">
+        <v>2025-06-01</v>
+      </c>
+      <c r="K11" t="str">
+        <v>permanent</v>
+      </c>
+      <c r="L11" t="str">
+        <v>testing</v>
+      </c>
+      <c r="M11" t="str">
+        <v>Akshaya</v>
+      </c>
+      <c r="N11" t="str">
+        <v>1</v>
+      </c>
+      <c r="O11" t="str">
+        <v>1245</v>
+      </c>
+      <c r="P11" t="str">
+        <v>factory</v>
+      </c>
+      <c r="Q11" t="str">
+        <v>233e5</v>
+      </c>
+      <c r="R11" t="str">
+        <v>e45r</v>
+      </c>
+      <c r="S11" t="str">
+        <v>2</v>
+      </c>
+      <c r="T11" t="str">
+        <v>1</v>
+      </c>
+      <c r="U11" t="str">
+        <v>5567</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>CMP-011</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Inductor</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Stored Component</v>
+      </c>
+      <c r="D12" t="str">
+        <v>In Storage</v>
+      </c>
+      <c r="E12" t="str">
+        <v>2025-06-01</v>
+      </c>
+      <c r="G12" t="str">
+        <v>123</v>
+      </c>
+      <c r="H12" t="str">
+        <v>Inductor</v>
+      </c>
+      <c r="M12" t="str">
+        <v>Laasya</v>
+      </c>
+      <c r="N12" t="str">
+        <v>1</v>
+      </c>
+      <c r="U12" t="str">
+        <v>0098</v>
+      </c>
+      <c r="V12" t="str">
+        <v>13542</v>
+      </c>
+      <c r="W12" t="str">
+        <v>2025-06-01</v>
+      </c>
+      <c r="X12" t="str">
+        <v>0098</v>
+      </c>
+      <c r="Y12" t="str">
+        <v>12</v>
+      </c>
+      <c r="Z12" t="str">
+        <v>1w3</v>
+      </c>
+      <c r="AA12" t="str">
+        <v>5</v>
+      </c>
+      <c r="AB12" t="str">
+        <v>97</v>
+      </c>
+      <c r="AC12" t="str">
+        <v>35</v>
+      </c>
+      <c r="AD12" t="str">
+        <v>2025-05-30</v>
+      </c>
+      <c r="AE12" t="str">
+        <v>2025-06-01</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AE12"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Bounded-Storage-Managment-System/inventory.xlsx
+++ b/Bounded-Storage-Managment-System/inventory.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE12"/>
+  <dimension ref="A1:AH15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -467,33 +467,42 @@
         <v>SO No</v>
       </c>
       <c r="V1" t="str">
+        <v>Approved By</v>
+      </c>
+      <c r="W1" t="str">
+        <v>Approval Date</v>
+      </c>
+      <c r="X1" t="str">
+        <v>Approval Signature</v>
+      </c>
+      <c r="Y1" t="str">
         <v>Storage No</v>
       </c>
-      <c r="W1" t="str">
+      <c r="Z1" t="str">
         <v>Storage Date</v>
       </c>
-      <c r="X1" t="str">
+      <c r="AA1" t="str">
         <v>SO Number</v>
       </c>
-      <c r="Y1" t="str">
+      <c r="AB1" t="str">
         <v>S.No as per PO</v>
       </c>
-      <c r="Z1" t="str">
+      <c r="AC1" t="str">
         <v>Grade</v>
       </c>
-      <c r="AA1" t="str">
+      <c r="AD1" t="str">
         <v>Storage Quantity</v>
       </c>
-      <c r="AB1" t="str">
+      <c r="AE1" t="str">
         <v>Storage Temperature</v>
       </c>
-      <c r="AC1" t="str">
+      <c r="AF1" t="str">
         <v>Relative Humidity</v>
       </c>
-      <c r="AD1" t="str">
+      <c r="AG1" t="str">
         <v>Storage Data</v>
       </c>
-      <c r="AE1" t="str">
+      <c r="AH1" t="str">
         <v>Delivery Date</v>
       </c>
     </row>
@@ -648,7 +657,7 @@
         <v>Issued Component</v>
       </c>
       <c r="D9" t="str">
-        <v>Issued</v>
+        <v>Approved</v>
       </c>
       <c r="E9" t="str">
         <v>2025-06-01</v>
@@ -700,6 +709,15 @@
       </c>
       <c r="U9" t="str">
         <v>5567</v>
+      </c>
+      <c r="V9" t="str">
+        <v>kmp'n</v>
+      </c>
+      <c r="W9" t="str">
+        <v>2025-06-23</v>
+      </c>
+      <c r="X9" t="str">
+        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAZAAAACWCAYAAADwkd5lAAAAAXNSR0IArs4c6QAAEjdJREFUeF7tnT3ILkcVx0+iN1djPjSJAUGRYOPHRcWAEK3EykIEsfCjECtBGysREUylpBILRSwsLKKNaKFWYulHoaJ4RUFELFKYRKMxmmj8eCfs4Lnz7ux87Mye3Z3fA5eE99k5c87vzM7/mZndmZuEDwQgAAEIQKCCwE0VZSgCAQhAAAIQEASERgABCEAAAlUEEJAqbBSCAAQgAAEEhDYAAQhAAAJVBBCQKmwUggAEIAABBIQ2AAEIQAACVQQQkCpsFIIABCAAAQSENgABCEAAAlUEEJAqbBSCAAQgAAEEhDYAAQhAAAJVBBCQKmwUggAEIAABBIQ2AAEIQAACVQQQkCpsFIIABCAAAQSENgABCEAAAlUEEJAqbBSCAAQgAAEEhDbQmsC1C4MPTv9+2do49iAAgf0QQED2k4uzePIfkeeOCfiviNx8lqCIAwIQuEwAAaFVtCbghMN/aF+t6WIPAjsiwA2+o2ScxBUE5CSJJAwIpAggIClCfF9KQAsI01il9LgeAgcigIAcKFkHcVULiHOZNnaQxOEmBEoJcHOXEuP6FIFQQB4VkXtThfgeAhA4HgEE5Hg527vHoYAwjbX3jOEfBCoJICCV4CgWJRAKCNNYNBYInJQAAnLSxBqGNScgd4jIk4Y+UTUEINCBAALSAergJr2AuP/69sU01uCNgvDPSQABOWdeLaPSAqKnr2hrllmhbgh0IMBN3QHq4Ca9gLgtTdzHb2dCWxu8YRD++QhwU58vp9YReQF5VkSuTHtiOZ/+LSLPt3aO+iEAgXYEEJB2LLEk8hER+cIE4qMX7398UQkI6yC0EAicjAACcrKEGofzjIjcMvng25bfnVevhxi7SfUQgEALAghIC4rY8ATcNFW45vG0iFydLvihiLwFXBCAwDkIICDnyONeooiNNvSTWZwRspds4QcEVhJAQFYCpPgNBFICwjQWDQYCJyKAgJwomTsIJSYgc1NbO3AXFyAAgTUEEJA19NaXfZ+IfPJi4fkzIvK19ebMLSxNVfnv/qUW2s0dxgEIQKCeAAJSz65FybOd3rcUD+sgLVoMNiCwIwIIiG0yRhIQHue1bWvUDoHmBBCQ5kiLDI4kIG7qyr+JTrsraiZcDIF9EuBGts3L2c4PTwmi3ifrebboqR0CEFhLAAFZS3Bd+bOdH54rIGxrsq7dUBoCuyCAgNimIRSQn4rI/bYurao9JSCsg6zCS2EI7IsAAmKbj7OdH54SkMdF5K4J+VMicpstfmqHAATWEEBA1tBbX/Zs54enBMQR43He9e0GCxDYBQEExDYNcwLyEhF5wtat6tpzBIRprGq8FITAvgggILb5mBOQIy8w5wiIE8c7J+xHjtW25VA7BHZAAAGxTcKcgDiP9pQXPWJIdfg5AuLiYxRi2+6oHQJNCOypo2oS0MGMhO+B+HzsKS8ljxrnCghrIQdrqLgLgTkCe+qoRsyQ7nDdU0kvmiD8Q0Ru3QmQXgLCKGQnCcYNCNQSQEBqybUpF/5i3+MTSjUCkprq8vT2GG+bzGIFAgMQQEBskxwKyB5/lWufUuszpYKwVbxhDLkCZ9s6qB0COyeAgNgmKBQQveHgr0TkdZXuuQ7TfVocH/tPEbmi/FhqM6UC8lkR+cRku1enHoqHD4W2X9m4KAYBbqJ9tIG5RefSTngukhY2tN3cxfGaenuPQo7wpNs+WiNeQKCQAL/CCoE1vnxJQFLTRUuuaLuug167822pgJTWWSo8sVHFXL3ad3e0rmfhRlZXG+cTcxAYigACYpvuuY5Zd44PiMiPKlxcWvguea/DVx0+bhybGvPXuY7an/2R437pKCQ2qliqyz/ZVipWOf5zDQSGJICA2KY99st+bSe3JCAlT1XNCYj7W+zXu7f9jIi8oACtExwvSjltMhS01GhNr6+UilVBGFwKgbEI5NysYxHZNtqUgKQ6xpi3vQUk5pevt6Zd+bLPBov2YYxLIyj/8EBYxr1jc/v0R2ffT2PV+LltC6E2COyYADeQbXJiArL2V3JMQObWDnLawNyUUfjUlJsi8qOOHJsh+ZxRlx6p1IqrK+frKl2rsW0t1A6BnRGoudF3FsKh3YkJyB9F5KVTZDWLvTEBCf8eikDOiMaV8e1Gl1/7yz5HNHMX81ONopWdVD18D4FTE0BAbNO71JHl/CLP6fD1L/Wa9Q/9i93b0nb8r/jSdYzQ95zyrTr+HLGybRnUDoEDEEBAbJO01CGu6eRyRiC5o485AZn72xp/fRa8337Ude3iiwcvppw+LSLXGx9GlbvmYttC+tbuRrr3RHZ/Lmkffb3E+m4JICC2qVkSkKfVewqPisi9Ba7mCMhf1bkcKdNzfmrB8P+/djfhcNQVe9+jxWaTa0Z4KV57/z7GNfSb/mHvmTT2jwZim4DUlExtJzcnICV7WoVUYn7OLa7rKbNSutpHt6Yy9y5Jq1/GLUZMpfFZX58rHN5P+gfrjO28fhqIbYJyBaS0U54TkNr1j9gUVjjtpEmuaVcxUfJ//7uI3NYgbXqE52z6rfQbmN6liRjXOWfdtW5NSu+BtsugcMqWwJob3dbzc9SeEhD9ZNPnL85K/1hm2CkBKX1TPOWn/n7tCEF37K1EKYatdoSXmQazy8LHnXMc8SxabMCZUx/XnIAAAmKbxFTHrH/9l3TMoYC4N8P1vk+leU/5qb9v8W7FXAdY6nNOZlNx5djYwzVuF2f3cmQJIwRjD5k7uA8lDe7goe7S/ZwOLOcaHdwTGYvjpZ18ygf9/d/UW99roK+ZcsutNxVXrh2L69yTam6NKPceLt1exiIm6jwYgdzGd7CwDuNuTgemFz5dh+F+nS99chdKS3KfmurJiaM0KQjIPLGl/HpmYW4fFpEPlCaA6yGQIlDSiaRs8X05gdyON9WB65qXFkvddzrnOSMRt8D8wqkCN1Vyy0yYuXGUEHLrP34+3vlZsrtvbj09/M6tu+S6pSkqF8PvReQREXlrYLRk2rPEH66FwHMEEBDbhpDbgeVe56KJCYjfpDD1CzZcRM153NUv9pcuztvSv5HVHu+FWK5CYZhbM/qqiHzQGjD1n5vAHm+acxO/MbpcYcjpxJ3l8PhZXVs48ojlXndOumNK/Zp9vYj84mDJy+W/ZVj6WOOw3phA6zhY69gyW4PXhYDYNoDcDuzNIvLjydWlaafcX6w66txHPs/YVnL5b9FKanLn/NLlHlJnzG/hM3UMTuCMncKRUlrSgeVcq9dKdG5TZ2zo9YZYmzhjW8lh2rM9ue3v3RrTHNuc6cA/iMgrJgdTI8SecWB7UAJn7BSOlMqSDiw1jRV+X2J7bqoknPLqsYhtnas1jNb6PjfiKBUBS//Xxk/5ExBAQGyTWNIBfEVEPjS5OzeiCJ/UKrFtS8GudgtGLYQjnLr6k4jcbYeRmkclgIDYZr60A4tdrx+19eJSatuWhE3tWzLS29L4aF39LxYRtzNyyafk4YYSu1wLgSICCEgRruYXl3ZgsWmsub+X2m4e3AEMbsFo7qkqV+93ROSdlYxifj8uIncFNlvtDFDpKsXOTAABsc1uaQf2FxG5Y3JZH3UbTl+5S0pt25Kwqb0no9+KyKtmwio5hyVGZc5v3TbCcu5Fw/tsEFPrmQkgILbZrenAQrGIjUpqbNvS2L72Xozm1jlynqrKJTDnt/7bY9NJg9reN0TkPbkVcB0EcgggIDmU+l1T04HFnrYKn+Cpsd0v0n1abs1oTjhytosppZMSEHdff2o6Ctg/PfcbEXl1aUVcD4ElAghI2/aRu5Hh0tSEm6Jy89axjzvO1b0/4D6uI/E5DHN51O1F2mZk2VorAZl7GTMU9FZxzS2gu7fP/R5lul434viciLxcRL69Ys2lle/YORkBBGRdQtcKxpKQOKGInZKnOz4vJHMHAR1xe5F1GSkrvVZAYk9W9TyUKfQ53L4mvKc/LCJfEhH33y+X4eFqCCwTQEDWtZCwI/edea5VzV+PJnx59zf37x4R+bMyuuZ881zfRriuVkBie479TETe1Bmc9jk8Nz52P/NDonNSRjWPgNRlvtVc91wHFtubyk9NhN/zmGZdDkOxz70X5nKf2iqm3sPLJWOj3lz/W/qCrcEJ0OjqGkA48qjluPQL2O9PlTNK6TllUkfoGKVKRyBh3nsskOeQa9X+curiGghECdR2fKMjLe14Yrxy7OQcUUse61pkDn9n+bqIvDaowpq5Ey/nvzsLnQ8ETAhY3wQmQTeoNLfjSVWVY2duodblLbW5Yqpuvs972TJ8k7zX01XkAwKHI4CA1KUsp+PPsbxkx61t3BrZ6tvlTS/kkscc2pevSeUxXG+ymrKqi45SEOhMgI6nDnCq48m1OmcnJhyu8/JrHa7cu0Xkm1NFsbPKc/0Y9bqlPIaL1VsulI+aD+I+GAEEpC5huuNxO+HG3tdIWdd2noqMOPSvXt2p6cd+mVZJkZ7/3vMP+YWL1D8XkTfWVUEpCJyXAAJSl9sej/GGnsSmS8LOzZVDQOryGArI90XkbYEp7pE6tpQagAA3R32SYwcDpZ6MeVptOzHHP2eefU5EyGV5Lj1Hx9ytd1xRJhDlcp6UGIwAnc76hMde/Cu1XLJb69tF5Hv8Ui5FfOl6PQLR90KOiK+uHAMQODoBBKRdBtcKSWkuwvpKy7eL/JiW3NYw7jTA8MNi+THzidcGBOh0+kB3nfscW/eL101h+UX3tU9z6fIlI5g+UR/L6pzgs1h+rBzirTEBBMQ2AWsFhLOx6/MXrmG5szLcmRl8IACBTAIISCaoTpetFRB3VOkrlW/kM50od6Ts7cFlcEtz4woIXCLAjWPbKNYKiPO+hQ1bCtvVbnF+x3bRURMENiaAgGwMPKiuReffwoYthW1qT22Tv40X1AKBExFAQGyT2aLz1x2jm5650zakXdaujwF2DrrF8jdMnvLI7i5ThlNHIICA2GaphYDodRA6w8v5fIeIfFf9+TUi8ms19ec2pbxq2wyoHQLHJICA2OathYDodRDenr6cT83Yn974OxG5b7qUe8D2HqD2AxPg5rFNXmsBcdGQ0//nVD+qq0dnetoPXrb3ALUfmAA3j23yWgkIHeLlPOqDoMKRGYdx2bZ7aj8JAQTENpGtBIR1kBvz+HEReWhm3cP/CQGxbffUfhICCIhtIlsJiF4HYRrrxndj3BNY7mRH/YmdA2LbGqgdAgcjgIDYJgwBac8/tu6BgLRnjcXBCSAgtg2gpYDodZA1pyTaEllX+2MicvdkYumJNM+dDSjX8ab04AQQENsG0FJA3nVx7Oq3MjpP24j71p7L0193XUSu9XUJ6xA4LwEExDa3frql1fsbuR2obdR9atcjsKUXKvV+WLT/PrnA6iAEuIFsE/3wxVvR7xWRr4vI+xu4ogWklSg1cGsTE7niyRNYm6SDSkYggICcK8uPiMjLVEij5PcHIvLAFHfqREEE5FxtnmgMCYzSwRgi3rzqEUchJaLAI7ybN0kqPCsBBOR8mdUC4qIbIce501d6/YNNFM/X9oloYwIjdC4bIzWvDgGJpyBXaMyTiAMQOAIBBOQIWSrz0f3KvnkaeYzynkOuMPjr2Pa+rE1xNQRmCSAg52wY7szv+0XkJyLy5DlDvCGqHAEpWScZABkhQmA9AQRkPUMs2BPIEZCca+wjwQMIHIgAAnKgZOFqlEBKHPRLhqO9H0OzgUA3AghIN7QY3pBATEC0cHh3aPMbJoaqzk2Am+nc+R0lOr2+sRQz7X2UFkGcmxDghtoEM5VsQCB8fFlXybTVBgmgivEIICDj5fzMEbuRSPhxjzTzgQAEOhBAQDpAxSQEIACBEQggICNkmRghAAEIdCCAgHSAikkIQAACIxBAQEbIMjFCAAIQ6EAAAekAFZMQgAAERiCAgIyQZWKEAAQg0IEAAtIBKiYhAAEIjEAAARkhy8QIAQhAoAMBBKQDVExCAAIQGIEAAjJClokRAhCAQAcCCEgHqJiEAAQgMAIBBGSELBMjBCAAgQ4EEJAOUDEJAQhAYAQCCMgIWSZGCEAAAh0IICAdoGISAhCAwAgEEJARskyMEIAABDoQQEA6QMUkBCAAgREIICAjZJkYIQABCHQggIB0gIpJCEAAAiMQQEBGyDIxQgACEOhAAAHpABWTEIAABEYggICMkGVihAAEINCBAALSASomIQABCIxAAAEZIcvECAEIQKADAQSkA1RMQgACEBiBAAIyQpaJEQIQgEAHAv8Djev0tYhOSxMAAAAASUVORK5CYII=</v>
       </c>
     </row>
     <row r="10">
@@ -733,34 +751,34 @@
       <c r="U10" t="str">
         <v>8945</v>
       </c>
-      <c r="V10" t="str">
+      <c r="Y10" t="str">
         <v>123456789</v>
       </c>
-      <c r="W10" t="str">
+      <c r="Z10" t="str">
         <v>2025-06-01</v>
       </c>
-      <c r="X10" t="str">
+      <c r="AA10" t="str">
         <v>8945</v>
       </c>
-      <c r="Y10" t="str">
+      <c r="AB10" t="str">
         <v>12</v>
       </c>
-      <c r="Z10" t="str">
+      <c r="AC10" t="str">
         <v>1w3</v>
       </c>
-      <c r="AA10" t="str">
+      <c r="AD10" t="str">
         <v>5</v>
       </c>
-      <c r="AB10" t="str">
+      <c r="AE10" t="str">
         <v>98</v>
       </c>
-      <c r="AC10" t="str">
+      <c r="AF10" t="str">
         <v>32</v>
       </c>
-      <c r="AD10" t="str">
+      <c r="AG10" t="str">
         <v>2025-06-01</v>
       </c>
-      <c r="AE10" t="str">
+      <c r="AH10" t="str">
         <v>2025-06-10</v>
       </c>
     </row>
@@ -860,40 +878,244 @@
       <c r="U12" t="str">
         <v>0098</v>
       </c>
-      <c r="V12" t="str">
+      <c r="Y12" t="str">
         <v>13542</v>
       </c>
-      <c r="W12" t="str">
+      <c r="Z12" t="str">
         <v>2025-06-01</v>
       </c>
-      <c r="X12" t="str">
+      <c r="AA12" t="str">
         <v>0098</v>
       </c>
-      <c r="Y12" t="str">
+      <c r="AB12" t="str">
         <v>12</v>
       </c>
-      <c r="Z12" t="str">
+      <c r="AC12" t="str">
         <v>1w3</v>
       </c>
-      <c r="AA12" t="str">
+      <c r="AD12" t="str">
         <v>5</v>
       </c>
-      <c r="AB12" t="str">
+      <c r="AE12" t="str">
         <v>97</v>
       </c>
-      <c r="AC12" t="str">
+      <c r="AF12" t="str">
         <v>35</v>
       </c>
-      <c r="AD12" t="str">
+      <c r="AG12" t="str">
         <v>2025-05-30</v>
       </c>
-      <c r="AE12" t="str">
+      <c r="AH12" t="str">
         <v>2025-06-01</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>CMP-012</v>
+      </c>
+      <c r="B13" t="str">
+        <v>diode</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Issued Component</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Issued</v>
+      </c>
+      <c r="E13" t="str">
+        <v>2025-06-23</v>
+      </c>
+      <c r="F13" t="str">
+        <v>akshaya</v>
+      </c>
+      <c r="G13" t="str">
+        <v>12</v>
+      </c>
+      <c r="H13" t="str">
+        <v>diode</v>
+      </c>
+      <c r="I13" t="str">
+        <v>23317909</v>
+      </c>
+      <c r="J13" t="str">
+        <v>C:\fakepath\Admit Card (1).pdf</v>
+      </c>
+      <c r="K13" t="str">
+        <v>aocs</v>
+      </c>
+      <c r="L13" t="str">
+        <v>project-work</v>
+      </c>
+      <c r="M13" t="str">
+        <v>akshaya</v>
+      </c>
+      <c r="N13" t="str">
+        <v>1</v>
+      </c>
+      <c r="O13" t="str">
+        <v>76889</v>
+      </c>
+      <c r="P13" t="str">
+        <v>factory</v>
+      </c>
+      <c r="Q13" t="str">
+        <v>233e5</v>
+      </c>
+      <c r="R13" t="str">
+        <v>e45r</v>
+      </c>
+      <c r="S13" t="str">
+        <v>4</v>
+      </c>
+      <c r="T13" t="str">
+        <v>1</v>
+      </c>
+      <c r="U13" t="str">
+        <v>5567</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>CMP-013</v>
+      </c>
+      <c r="B14" t="str">
+        <v>diode</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Issued Component</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E14" t="str">
+        <v>2025-06-23</v>
+      </c>
+      <c r="F14" t="str">
+        <v>l.noiahs;l</v>
+      </c>
+      <c r="G14" t="str">
+        <v xml:space="preserve">.m </v>
+      </c>
+      <c r="H14" t="str">
+        <v>diode</v>
+      </c>
+      <c r="I14" t="str">
+        <v>23317909</v>
+      </c>
+      <c r="J14" t="str">
+        <v>C:\fakepath\Admit Card (3).pdf</v>
+      </c>
+      <c r="K14" t="str">
+        <v>cnds</v>
+      </c>
+      <c r="L14" t="str">
+        <v>testing</v>
+      </c>
+      <c r="M14" t="str">
+        <v>akshaya</v>
+      </c>
+      <c r="N14" t="str">
+        <v>1</v>
+      </c>
+      <c r="O14" t="str">
+        <v>76889</v>
+      </c>
+      <c r="P14" t="str">
+        <v>factory</v>
+      </c>
+      <c r="Q14" t="str">
+        <v>233e5</v>
+      </c>
+      <c r="R14" t="str">
+        <v>e45r</v>
+      </c>
+      <c r="S14" t="str">
+        <v>5</v>
+      </c>
+      <c r="T14" t="str">
+        <v>21</v>
+      </c>
+      <c r="U14" t="str">
+        <v>5567</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>CMP-014</v>
+      </c>
+      <c r="B15" t="str">
+        <v>capacitors</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Issued Component</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E15" t="str">
+        <v>2025-06-23</v>
+      </c>
+      <c r="F15" t="str">
+        <v>Laya</v>
+      </c>
+      <c r="G15" t="str">
+        <v>122</v>
+      </c>
+      <c r="H15" t="str">
+        <v>capacitors</v>
+      </c>
+      <c r="I15" t="str">
+        <v>2731456</v>
+      </c>
+      <c r="J15" t="str">
+        <v>C:\fakepath\Admit Card (2).pdf</v>
+      </c>
+      <c r="K15" t="str">
+        <v>eps</v>
+      </c>
+      <c r="L15" t="str">
+        <v>development</v>
+      </c>
+      <c r="M15" t="str">
+        <v>Laya Sc-G</v>
+      </c>
+      <c r="N15" t="str">
+        <v>1</v>
+      </c>
+      <c r="O15" t="str">
+        <v>2334</v>
+      </c>
+      <c r="P15" t="str">
+        <v>factory</v>
+      </c>
+      <c r="Q15" t="str">
+        <v>322w5</v>
+      </c>
+      <c r="R15" t="str">
+        <v>2w3</v>
+      </c>
+      <c r="S15" t="str">
+        <v>7</v>
+      </c>
+      <c r="T15" t="str">
+        <v>2</v>
+      </c>
+      <c r="U15" t="str">
+        <v>00954</v>
+      </c>
+      <c r="V15" t="str">
+        <v>Swarna sc-G</v>
+      </c>
+      <c r="W15" t="str">
+        <v>2025-06-23</v>
+      </c>
+      <c r="X15" t="str">
+        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAZAAAACWCAYAAADwkd5lAAAAAXNSR0IArs4c6QAAEXdJREFUeF7tnUnvLkUVh38gyCAKiCBGAoQoigsNxkhcOC0cAoEv4MK4MyZuTIwLiHEhG+PChS7cuDD6AVDBBE0UF0ZNnBaiaAwgGkBxiqByEfVf0A2Hvj3U1NXV1c+bkHsvbw3nPOe89esauvsM8YEABCAAAQhEEDgjog5VIAABCEAAAkJASAIIQAACEIgigIBEYaMSBCAAAQggIOQABCAAAQhEEUBAorBRCQIQgAAEEBByAAIQgAAEogggIFHYqAQBCEAAAggIOQABCEAAAlEEEJAobFSCAAQgAAEEhByAAAQgAIEoAghIFDYqQQACEIAAAkIOQAACEIBAFAEEJAoblSAAAQhAAAEhByAAAQhAIIoAAhKFjUoQgAAEIICAkAMQgAAEIBBFAAGJwkYlCEAAAhBAQMgBCEAAAhCIIoCARGGjEgQgAAEIICDkAAQgAAEIRBFAQKKwUQkCEIAABBAQcgACEIAABKIIICBR2KgEAQhAAAIICDkAAQhAAAJRBBCQKGxUggAEIAABBGQ/OfBfScN4/U/SuZJO7ccNLIUABFohgIDsI5L/kfSiGVOdkJy5D1ewEgIQaIUAArKPSDqB8PkQTx9KlIEABLIQYMDJgnHVRuzs42lJZw16s+LCTGTVUNA4BCBgCSAg9eeDFYipePmUqd9TLIQABHZFAAGpO1y3SLqjM3Fs9mGt70VkbzEdOxzg/GI2VXduYh0ETjvVA5K6CNjBdUkY9iggU+LRRwERqSsfsQYCLyCwNCiBa1sCvSj4DKR7E5AnJb3YA6+P7x7NUAQCEMhNAAHJTTRfe27Jqj+a+3lJH11oem8CsrRvY2cniEi+vKIlCGQjgIBkQ5m9oZDZR79n4P7cQ0yvlXSfx95OyBJe9gDQIAQgME9gD4PNEWP4Ckl/6hx3Sz3ubvOlz55mICHC0Pvl6szdTLnEh+8hAIHMBBCQzEAzNWeXr3xi9E9J53V9+5TPZGZ0MyGiEDoTizaKihCAQBiBPQw2YR61UTrkCt15HFp+S0qhti7tlWzpC31D4NAEEJA6wx86aO7pKj3U1lDBqTOiWAWBBgkgIHUGNWSQtQOsW8p6SZ0uPWOVfSyLb+6FLudV7D6mQaAtAr4/4ra8rt+bmD0C51Xt8QwRxj5KP5f0xu4ftftXf2ZhIQQyEuAHmRFmpqb+ZU5dXSrpsZl27ezjKc8b8zKZGdzMvZKu62o9IekCzxYsD/LVExrFIFCCAD/IEpTD+ghZ8w/dKwmzJG/pEL9szyxh5Y0DrUEgGwEEJBvKbA35LvPYAdntLZydzYJ1GooVu1jhWccLWoUABJ4jgIDUlQz/lnROZ5Jbujl/wrwHJF1lvttDHH2FcegyAlJXjmINBBCQSnPAd7C0V/PujvXLKvWnN+thSZd3/3hE0qsC7PVlEtAkRSEAgRwE9nDlmsPPvbThc5VuB9S9PN4jRQR8mOwlvtgJgaYIICB1hbMfLOeWr2L3Erb0NMVmBGTLyNE3BGYIICB1pcfSAxHtQPygpKvrMn/SmhQRSKm7EzyYCYF9EkBA6orbnIDYu7j3snTV0+39Ct3/cPVDbqqsK5pYA4HGCSAgdQV4TkBSloG29nJpZjVnX1+39hslt2ZM/xAoTgABKY58tsOpgdbeTLfHgTRUQJy/LjfH8pOcrStnsebABPgx1hX8qYF2z7MPuww1l2/2pFZKVMjpFHrUhUAAAX5sAbAKFO2Fwl2Bn9X1ZwfWudNZuc3LKVpzM5BcwtH7T07nzgTag8AEAX5sdaXGcNC+WdLXOhPdd2cWNDeHgAzFYZhvw+9dn+4/9+raYf/233MYyOmCSUJXxybAj62u+NuTVqe651v1MbpS0kMFzbUDtp0R+ZowNrMYiuDUEd2YpwyH7rP4+kE5CECAGchucsAOqr14lJ59jA3+w4uNpfszpmYM9gjy2KBv+w7xGwHZTYpjaCsEmIHUF0mfwXttq8cG/+ETf22ZsYHeDujD9qwwTvkSIh7uTYzndQ2R02tnB+1DgB9btTlgB0NnZMhAmsupqcHfDs5DUXD/dpv8/St15wTE2enamtpAD/U5x35NLna0A4HDEOBqrc5Qjw3OW2ygDwf5MQFxts7lkfuu98cJRu9Hv68ytpEe4qut/y1J760zpFgFgfYIICD1xdTdKNgf4R1aV+oYr509vFzSnztD7MzAlpk7imsFxP69n4WkRmBpLya1fepDAAITBBCQ+lJjuByTeoUe4+FwQ3rscexLG+B9v0MB+ZukC0cEKcbOlMfEx/RHHQhAwBBAQOpKB/vIEnt01s08zh2YuuZsZCgOdlbU2xVy6mlOkGIfzfJDSW/NJER1ZQHWQGAnBBCQegL1R0mXLoh7qdnImDgMZ0YpAuLcTN34Tq1fT+SxBAI7JYCA1BM4OyB+UdKHJ0wbm424d6n3x1hzeDQmDvYmR9uHTw6NtWdnW/dLuibAcHtSzf29P/kV0ARFIQCBVAI+P/7UPqi/TMDOLHzv+l5zNjI24D8m6ZIRV3xyaGq2Yk9nuceX+H5SZh9f7Tpxf97l2yHlIACB0wn4/Pjhti4BezUdev/D2Gzk75IuSjR5bMC/UdKdg3Z97V0SEN92XPexx3Yf72zvZyuPSro8kRPVIXBoAgjI9uFPuZrurR/ORlLfWDi3vxFj75KAOD98czH22K612/X3Pkl3bx9+LIDAfgn4/mj362Hdlsc8NHDKo/7hi/33bsD82Mls5HMRCJY2yG+S5E5P+Q7AfXvD5bnQY7ih5a3rvQ1u5uH+e1MEF6pAAAKGAAKyXTrYAT9kCWfO4k+dLPF8cnA1P3yGlY/HSwLi08bY4D2cadiN9KVc/I6kd3WNhvKy954s9RPqG+UhcFgC/Ji2C33MUpCvtXZgdnVCB9zcAmLtsSfG7pV0XefU0n0tsbysULu/n+MLkXIQgMA8AQRkmwwp8ZZBe9U9FJGlhxjmFpC+/zEx89nTcBvg/eZ3yLHd4ftVEI9t8p1eGyWAgJQPrB3UQmcGMdamvDI2Z35M7V/47GvEzD4s55hlvBjW1IHAoQjkHCAOBS7SWXe89q+mbin+wxNIvubntm9stuGWtPqZwVh/VmDuMfsgcz7YOoiHb7QpB4FAArkHiMDuD1fcDmy3nbyy9vYCBHxeLWvN8JkRxJo91bbPsWHf2RriERsd6kEgkAACEggsobjdSE69T8PXjLnlq7kBeY09EGfzI5Je2RnfM5gTrFAxs+0z8/DNEspBIJIAAhIJLrDa9ZJ+0tXxvZIO7OK04nbZyvZpB+UpW9YSEGfk3HKazcfvSnpnALP3S/rmBsuDqXGiPgR2SwABKRM6O2jeIOlHK3e7JBJL368pIHMvzLL5GLpxHlp+5RDQPATaJ4CArB/j0ktX7llYL/O4Ep8TkdA7zUMpLgmYfcaXO8L70oUOHpJ0RVfGibMTaT4QgMDKBBCQdQH/Q9IFAcswOawJuRIvcT9KjE8hPrhlLrfc5T6l9pZifKIOBJojgICsG1I7ELob4dxNcGt+7L0PvoOpz418a9o8bDv02G6I2JT0g74g0DwBBGS9EG9xnDRmMA096bQeMekWSXcEzNgekHRVV97NQt69pnG0DQEIvJAAArJORtg1/FKnruzsw/elVM77JySd32EIqbcGuRAxe5uk77N0tUYYaBMCfgQQED9OoaViZgKhfQzLp/SZUjfV7r6+e1mVe2mV+/iIrrX5Yknu2V98IACBggQQkPywt1i66gdd92fMLMLOXrbKiRAR+42k13ShY+kqfw7TIgS8CGw1WHgZt8NCT0p6ccBVdE4XU+/dSK2f4ot92q5bUutPro21+QZJv+i+8D0okGIbdSEAgQkCCEje1Ai5is7b8/N3eMfGdEsBCeHG0lXuzKE9CEQSiB1sIrtruppdunIzkXMLe5sqAKn1Y9213O6S5G5inPr8StLrWLqKRU09COQlgIDk4Wkfz+GzAZyn1xe2kioAqfVjfAo5tsvSVQxh6kBgRQIISB64IUsweXo8vZVUAUitH+NXyLHdGhjH+EgdCDRLAAFJD20tjwNJuaM8ZCBPJ/ZsCyFP23VPMnZPNO7rccNgrijQDgQSCCAgCfAklX497Zy1wwcUupsZ+/eIz9WzPrhypXIiZEbRl+XUVVq+UhsCWQmUGiyyGl1JY1dKetDYUgPL4Quk3MA7JyRjL5wq4Yd7Jth5HbulY7shQlNJamAGBI5BoMRg0SpJO/guDYIlGcy9hXDOjpgbEGP98hUFezjh25LeE9sh9SAAgfwEEJBwpvYR7a52rcsqIUJS8uSY79N2fyvpmi48JcUtPCOoAYGDEkBAwgJvXw7lapYceMMsfb70lJBsZbvPZv9nTh7y+PHKlgdj+VMPAs0SQED8QzsciGudefh7VL6k72kv3yWu8h7QIwQg8BwBBMQvGU5JOtsUda+NvcivKqU6Ar7Hdq14uJnIJyAIAQjUSQAB8YuL75WzX2vHLOUzq7Cb5u6E29XHRIXXENgHAQTEL04+6/Z+LR2zlH3B1tSJNbtp7u5NsTO+Y1LDawhUTgABmQ+QvWp2Jd1A2L+9r/LQVmXe0uzj05JuNRaTl1WFD2MgME6AH+o4l7GTS1udWtp77voc210SmL0zwH4INEkAATk9rBdOvB4VVnE/gaXlPzbN47hSCwKbE2BQ9JuBwCkuVZcOH9hN8/vNjYNxvVELAhAoSoCBsSjuQ3V2p6QbO4/Hlv9+Lem13fdsmh8qNXC2FQIISCuRrM+PuX0N7jSvL15YBIFgAghIMDIqeBB43DxKfnhs99WSfm/auELSHzzapAgEIFAZAQSksoA0Ys7c7MN+d/vJO1Vua8Rn3IDA4QggIIcL+eoO243zuyTdZHq0L6+6T9LrV7eGDiAAgdUIICCroT1kw7ecvHr2js7z4cb5w5Iu775j0/yQ6YHTrRFAQFqL6Lb+2NnHWyT9uDPnK5I+YEwj77aNE71DIAsBfshZMNKIpKlju++QdI8hdKmkxyAGAQjsnwACsv8Y1uLB1Ma5/f/uJVGfrcVg7IAABNIIICBp/Kj9LIGpY7t2Seunkt4MMAhAoB0CCEg7sdzSk7HZh313PE8x3jI69A2BlQggICuBPVCzY8d2vyfp7R0DnmJ8oGTA1WMRQECOFe/c3o4d2/2QpC+Zjsix3NRpDwKVEODHXUkgdmrG8NjuLyW5R5f0HycwX9+pb5gNAQgsEEBASJFYAmPHdu1eyDdO7gO5ObZx6kEAAvUTQEDqj1GtFg43zk+Z95j/RdIltRqOXRCAQB4CCEgejkdrxQnExZ3TbsnKPU332u7fbJofLRvw97AEEJDDhj7J8eETdW81rZFTSWipDIH9EODHvp9Y1WLp8Nhu/9ZBZx/5VEuUsAMCBQjwgy8AuaEuLpDkbhB0HzcLsfnzZUkfbMhXXIEABBYIICCkSAgBO/uwAvI7SVeFNERZCEBg/wQQkP3HsJQHH5H0hZHO2DQvFQH6gUBlBBCQygJSsTl29mHNJIcqDhqmQWBNAvz416TbTts/kHTDiDvkTzsxxhMIBBNgAAhGdsgK9thuD+BnJ6+vvf6QNHAaAhB4hgACQiIsEXhU0mWDQk9LOmupIt9DAAJtE0BA2o5vDu+Gsw82zXNQpQ0INEAAAWkgiCu7YAUE8VgZNs1DYE8EEJA9RWsbW3sBQTy24U+vEKiWAAJSbWiqMawXEHKlmpBgCATqIMCgUEccarbiJklPSbq7ZiOxDQIQKE8AASnPnB4hAAEINEEAAWkijDgBAQhAoDwBBKQ8c3qEAAQg0AQBBKSJMOIEBCAAgfIEEJDyzOkRAhCAQBMEEJAmwogTEIAABMoTQEDKM6dHCEAAAk0QQECaCCNOQAACEChPAAEpz5weIQABCDRBAAFpIow4AQEIQKA8AQSkPHN6hAAEINAEAQSkiTDiBAQgAIHyBBCQ8szpEQIQgEATBBCQJsKIExCAAATKE/g/snCztQ0qv3sAAAAASUVORK5CYII=</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AE12"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AH15"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Bounded-Storage-Managment-System/inventory.xlsx
+++ b/Bounded-Storage-Managment-System/inventory.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH15"/>
+  <dimension ref="A1:AK16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -476,33 +476,42 @@
         <v>Approval Signature</v>
       </c>
       <c r="Y1" t="str">
+        <v>Rejection Reason</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>Rejected By</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>Rejection Date</v>
+      </c>
+      <c r="AB1" t="str">
         <v>Storage No</v>
       </c>
-      <c r="Z1" t="str">
+      <c r="AC1" t="str">
         <v>Storage Date</v>
       </c>
-      <c r="AA1" t="str">
+      <c r="AD1" t="str">
         <v>SO Number</v>
       </c>
-      <c r="AB1" t="str">
+      <c r="AE1" t="str">
         <v>S.No as per PO</v>
       </c>
-      <c r="AC1" t="str">
+      <c r="AF1" t="str">
         <v>Grade</v>
       </c>
-      <c r="AD1" t="str">
+      <c r="AG1" t="str">
         <v>Storage Quantity</v>
       </c>
-      <c r="AE1" t="str">
+      <c r="AH1" t="str">
         <v>Storage Temperature</v>
       </c>
-      <c r="AF1" t="str">
+      <c r="AI1" t="str">
         <v>Relative Humidity</v>
       </c>
-      <c r="AG1" t="str">
+      <c r="AJ1" t="str">
         <v>Storage Data</v>
       </c>
-      <c r="AH1" t="str">
+      <c r="AK1" t="str">
         <v>Delivery Date</v>
       </c>
     </row>
@@ -711,13 +720,22 @@
         <v>5567</v>
       </c>
       <c r="V9" t="str">
-        <v>kmp'n</v>
+        <v>Akshaya</v>
       </c>
       <c r="W9" t="str">
-        <v>2025-06-23</v>
+        <v>2025-07-20</v>
       </c>
       <c r="X9" t="str">
-        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAZAAAACWCAYAAADwkd5lAAAAAXNSR0IArs4c6QAAEjdJREFUeF7tnT3ILkcVx0+iN1djPjSJAUGRYOPHRcWAEK3EykIEsfCjECtBGysREUylpBILRSwsLKKNaKFWYulHoaJ4RUFELFKYRKMxmmj8eCfs4Lnz7ux87Mye3Z3fA5eE99k5c87vzM7/mZndmZuEDwQgAAEIQKCCwE0VZSgCAQhAAAIQEASERgABCEAAAlUEEJAqbBSCAAQgAAEEhDYAAQhAAAJVBBCQKmwUggAEIAABBIQ2AAEIQAACVQQQkCpsFIIABCAAAQSENgABCEAAAlUEEJAqbBSCAAQgAAEEhDYAAQhAAAJVBBCQKmwUggAEIAABBIQ2AAEIQAACVQQQkCpsFIIABCAAAQSENgABCEAAAlUEEJAqbBSCAAQgAAEEhDbQmsC1C4MPTv9+2do49iAAgf0QQED2k4uzePIfkeeOCfiviNx8lqCIAwIQuEwAAaFVtCbghMN/aF+t6WIPAjsiwA2+o2ScxBUE5CSJJAwIpAggIClCfF9KQAsI01il9LgeAgcigIAcKFkHcVULiHOZNnaQxOEmBEoJcHOXEuP6FIFQQB4VkXtThfgeAhA4HgEE5Hg527vHoYAwjbX3jOEfBCoJICCV4CgWJRAKCNNYNBYInJQAAnLSxBqGNScgd4jIk4Y+UTUEINCBAALSAergJr2AuP/69sU01uCNgvDPSQABOWdeLaPSAqKnr2hrllmhbgh0IMBN3QHq4Ca9gLgtTdzHb2dCWxu8YRD++QhwU58vp9YReQF5VkSuTHtiOZ/+LSLPt3aO+iEAgXYEEJB2LLEk8hER+cIE4qMX7398UQkI6yC0EAicjAACcrKEGofzjIjcMvng25bfnVevhxi7SfUQgEALAghIC4rY8ATcNFW45vG0iFydLvihiLwFXBCAwDkIICDnyONeooiNNvSTWZwRspds4QcEVhJAQFYCpPgNBFICwjQWDQYCJyKAgJwomTsIJSYgc1NbO3AXFyAAgTUEEJA19NaXfZ+IfPJi4fkzIvK19ebMLSxNVfnv/qUW2s0dxgEIQKCeAAJSz65FybOd3rcUD+sgLVoMNiCwIwIIiG0yRhIQHue1bWvUDoHmBBCQ5kiLDI4kIG7qyr+JTrsraiZcDIF9EuBGts3L2c4PTwmi3ifrebboqR0CEFhLAAFZS3Bd+bOdH54rIGxrsq7dUBoCuyCAgNimIRSQn4rI/bYurao9JSCsg6zCS2EI7IsAAmKbj7OdH54SkMdF5K4J+VMicpstfmqHAATWEEBA1tBbX/Zs54enBMQR43He9e0GCxDYBQEExDYNcwLyEhF5wtat6tpzBIRprGq8FITAvgggILb5mBOQIy8w5wiIE8c7J+xHjtW25VA7BHZAAAGxTcKcgDiP9pQXPWJIdfg5AuLiYxRi2+6oHQJNCOypo2oS0MGMhO+B+HzsKS8ljxrnCghrIQdrqLgLgTkCe+qoRsyQ7nDdU0kvmiD8Q0Ru3QmQXgLCKGQnCcYNCNQSQEBqybUpF/5i3+MTSjUCkprq8vT2GG+bzGIFAgMQQEBskxwKyB5/lWufUuszpYKwVbxhDLkCZ9s6qB0COyeAgNgmKBQQveHgr0TkdZXuuQ7TfVocH/tPEbmi/FhqM6UC8lkR+cRku1enHoqHD4W2X9m4KAYBbqJ9tIG5RefSTngukhY2tN3cxfGaenuPQo7wpNs+WiNeQKCQAL/CCoE1vnxJQFLTRUuuaLuug167822pgJTWWSo8sVHFXL3ad3e0rmfhRlZXG+cTcxAYigACYpvuuY5Zd44PiMiPKlxcWvguea/DVx0+bhybGvPXuY7an/2R437pKCQ2qliqyz/ZVipWOf5zDQSGJICA2KY99st+bSe3JCAlT1XNCYj7W+zXu7f9jIi8oACtExwvSjltMhS01GhNr6+UilVBGFwKgbEI5NysYxHZNtqUgKQ6xpi3vQUk5pevt6Zd+bLPBov2YYxLIyj/8EBYxr1jc/v0R2ffT2PV+LltC6E2COyYADeQbXJiArL2V3JMQObWDnLawNyUUfjUlJsi8qOOHJsh+ZxRlx6p1IqrK+frKl2rsW0t1A6BnRGoudF3FsKh3YkJyB9F5KVTZDWLvTEBCf8eikDOiMaV8e1Gl1/7yz5HNHMX81ONopWdVD18D4FTE0BAbNO71JHl/CLP6fD1L/Wa9Q/9i93b0nb8r/jSdYzQ95zyrTr+HLGybRnUDoEDEEBAbJO01CGu6eRyRiC5o485AZn72xp/fRa8337Ude3iiwcvppw+LSLXGx9GlbvmYttC+tbuRrr3RHZ/Lmkffb3E+m4JICC2qVkSkKfVewqPisi9Ba7mCMhf1bkcKdNzfmrB8P+/djfhcNQVe9+jxWaTa0Z4KV57/z7GNfSb/mHvmTT2jwZim4DUlExtJzcnICV7WoVUYn7OLa7rKbNSutpHt6Yy9y5Jq1/GLUZMpfFZX58rHN5P+gfrjO28fhqIbYJyBaS0U54TkNr1j9gUVjjtpEmuaVcxUfJ//7uI3NYgbXqE52z6rfQbmN6liRjXOWfdtW5NSu+BtsugcMqWwJob3dbzc9SeEhD9ZNPnL85K/1hm2CkBKX1TPOWn/n7tCEF37K1EKYatdoSXmQazy8LHnXMc8SxabMCZUx/XnIAAAmKbxFTHrH/9l3TMoYC4N8P1vk+leU/5qb9v8W7FXAdY6nNOZlNx5djYwzVuF2f3cmQJIwRjD5k7uA8lDe7goe7S/ZwOLOcaHdwTGYvjpZ18ygf9/d/UW99roK+ZcsutNxVXrh2L69yTam6NKPceLt1exiIm6jwYgdzGd7CwDuNuTgemFz5dh+F+nS99chdKS3KfmurJiaM0KQjIPLGl/HpmYW4fFpEPlCaA6yGQIlDSiaRs8X05gdyON9WB65qXFkvddzrnOSMRt8D8wqkCN1Vyy0yYuXGUEHLrP34+3vlZsrtvbj09/M6tu+S6pSkqF8PvReQREXlrYLRk2rPEH66FwHMEEBDbhpDbgeVe56KJCYjfpDD1CzZcRM153NUv9pcuztvSv5HVHu+FWK5CYZhbM/qqiHzQGjD1n5vAHm+acxO/MbpcYcjpxJ3l8PhZXVs48ojlXndOumNK/Zp9vYj84mDJy+W/ZVj6WOOw3phA6zhY69gyW4PXhYDYNoDcDuzNIvLjydWlaafcX6w66txHPs/YVnL5b9FKanLn/NLlHlJnzG/hM3UMTuCMncKRUlrSgeVcq9dKdG5TZ2zo9YZYmzhjW8lh2rM9ue3v3RrTHNuc6cA/iMgrJgdTI8SecWB7UAJn7BSOlMqSDiw1jRV+X2J7bqoknPLqsYhtnas1jNb6PjfiKBUBS//Xxk/5ExBAQGyTWNIBfEVEPjS5OzeiCJ/UKrFtS8GudgtGLYQjnLr6k4jcbYeRmkclgIDYZr60A4tdrx+19eJSatuWhE3tWzLS29L4aF39LxYRtzNyyafk4YYSu1wLgSICCEgRruYXl3ZgsWmsub+X2m4e3AEMbsFo7qkqV+93ROSdlYxifj8uIncFNlvtDFDpKsXOTAABsc1uaQf2FxG5Y3JZH3UbTl+5S0pt25Kwqb0no9+KyKtmwio5hyVGZc5v3TbCcu5Fw/tsEFPrmQkgILbZrenAQrGIjUpqbNvS2L72Xozm1jlynqrKJTDnt/7bY9NJg9reN0TkPbkVcB0EcgggIDmU+l1T04HFnrYKn+Cpsd0v0n1abs1oTjhytosppZMSEHdff2o6Ctg/PfcbEXl1aUVcD4ElAghI2/aRu5Hh0tSEm6Jy89axjzvO1b0/4D6uI/E5DHN51O1F2mZk2VorAZl7GTMU9FZxzS2gu7fP/R5lul434viciLxcRL69Ys2lle/YORkBBGRdQtcKxpKQOKGInZKnOz4vJHMHAR1xe5F1GSkrvVZAYk9W9TyUKfQ53L4mvKc/LCJfEhH33y+X4eFqCCwTQEDWtZCwI/edea5VzV+PJnx59zf37x4R+bMyuuZ881zfRriuVkBie479TETe1Bmc9jk8Nz52P/NDonNSRjWPgNRlvtVc91wHFtubyk9NhN/zmGZdDkOxz70X5nKf2iqm3sPLJWOj3lz/W/qCrcEJ0OjqGkA48qjluPQL2O9PlTNK6TllUkfoGKVKRyBh3nsskOeQa9X+curiGghECdR2fKMjLe14Yrxy7OQcUUse61pkDn9n+bqIvDaowpq5Ey/nvzsLnQ8ETAhY3wQmQTeoNLfjSVWVY2duodblLbW5Yqpuvs972TJ8k7zX01XkAwKHI4CA1KUsp+PPsbxkx61t3BrZ6tvlTS/kkscc2pevSeUxXG+ymrKqi45SEOhMgI6nDnCq48m1OmcnJhyu8/JrHa7cu0Xkm1NFsbPKc/0Y9bqlPIaL1VsulI+aD+I+GAEEpC5huuNxO+HG3tdIWdd2noqMOPSvXt2p6cd+mVZJkZ7/3vMP+YWL1D8XkTfWVUEpCJyXAAJSl9sej/GGnsSmS8LOzZVDQOryGArI90XkbYEp7pE6tpQagAA3R32SYwcDpZ6MeVptOzHHP2eefU5EyGV5Lj1Hx9ytd1xRJhDlcp6UGIwAnc76hMde/Cu1XLJb69tF5Hv8Ui5FfOl6PQLR90KOiK+uHAMQODoBBKRdBtcKSWkuwvpKy7eL/JiW3NYw7jTA8MNi+THzidcGBOh0+kB3nfscW/eL101h+UX3tU9z6fIlI5g+UR/L6pzgs1h+rBzirTEBBMQ2AWsFhLOx6/MXrmG5szLcmRl8IACBTAIISCaoTpetFRB3VOkrlW/kM50od6Ts7cFlcEtz4woIXCLAjWPbKNYKiPO+hQ1bCtvVbnF+x3bRURMENiaAgGwMPKiuReffwoYthW1qT22Tv40X1AKBExFAQGyT2aLz1x2jm5650zakXdaujwF2DrrF8jdMnvLI7i5ThlNHIICA2GaphYDodRA6w8v5fIeIfFf9+TUi8ms19ec2pbxq2wyoHQLHJICA2OathYDodRDenr6cT83Yn974OxG5b7qUe8D2HqD2AxPg5rFNXmsBcdGQ0//nVD+qq0dnetoPXrb3ALUfmAA3j23yWgkIHeLlPOqDoMKRGYdx2bZ7aj8JAQTENpGtBIR1kBvz+HEReWhm3cP/CQGxbffUfhICCIhtIlsJiF4HYRrrxndj3BNY7mRH/YmdA2LbGqgdAgcjgIDYJgwBac8/tu6BgLRnjcXBCSAgtg2gpYDodZA1pyTaEllX+2MicvdkYumJNM+dDSjX8ab04AQQENsG0FJA3nVx7Oq3MjpP24j71p7L0193XUSu9XUJ6xA4LwEExDa3frql1fsbuR2obdR9atcjsKUXKvV+WLT/PrnA6iAEuIFsE/3wxVvR7xWRr4vI+xu4ogWklSg1cGsTE7niyRNYm6SDSkYggICcK8uPiMjLVEij5PcHIvLAFHfqREEE5FxtnmgMCYzSwRgi3rzqEUchJaLAI7ybN0kqPCsBBOR8mdUC4qIbIce501d6/YNNFM/X9oloYwIjdC4bIzWvDgGJpyBXaMyTiAMQOAIBBOQIWSrz0f3KvnkaeYzynkOuMPjr2Pa+rE1xNQRmCSAg52wY7szv+0XkJyLy5DlDvCGqHAEpWScZABkhQmA9AQRkPUMs2BPIEZCca+wjwQMIHIgAAnKgZOFqlEBKHPRLhqO9H0OzgUA3AghIN7QY3pBATEC0cHh3aPMbJoaqzk2Am+nc+R0lOr2+sRQz7X2UFkGcmxDghtoEM5VsQCB8fFlXybTVBgmgivEIICDj5fzMEbuRSPhxjzTzgQAEOhBAQDpAxSQEIACBEQggICNkmRghAAEIdCCAgHSAikkIQAACIxBAQEbIMjFCAAIQ6EAAAekAFZMQgAAERiCAgIyQZWKEAAQg0IEAAtIBKiYhAAEIjEAAARkhy8QIAQhAoAMBBKQDVExCAAIQGIEAAjJClokRAhCAQAcCCEgHqJiEAAQgMAIBBGSELBMjBCAAgQ4EEJAOUDEJAQhAYAQCCMgIWSZGCEAAAh0IICAdoGISAhCAwAgEEJARskyMEIAABDoQQEA6QMUkBCAAgREIICAjZJkYIQABCHQggIB0gIpJCEAAAiMQQEBGyDIxQgACEOhAAAHpABWTEIAABEYggICMkGVihAAEINCBAALSASomIQABCIxAAAEZIcvECAEIQKADAQSkA1RMQgACEBiBAAIyQpaJEQIQgEAHAv8Djev0tYhOSxMAAAAASUVORK5CYII=</v>
+        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAZAAAACWCAYAAADwkd5lAAAAAXNSR0IArs4c6QAADhxJREFUeF7t3UnMNdkYB/CntaF1o81TujthYViIkJhCJOiwJSIRQtIbWxsbCZEgkUis7GwQ04JgZUHSWGAhhliIWBBzzN3oNg/v6b6VHOerurfuObeGe+v3bvj6q3PqnN9Tb/2/mq8LPwQIECBAoELguoo2mhAgQIAAgRAgNgICBAgQqBIQIFVsGhEgQICAALENECBAgECVgACpYtOIAAECBASIbYAAAQIEqgQESBWbRgQIECAgQGwDBAgQIFAlIECq2DQiQIAAAQFiGyBAgACBKgEBUsWmEQECBAgIENsAAQIECFQJCJAqNo0IECBAQIDYBggQIECgSkCAVLFpRIAAAQICxDZAgAABAlUCAqSKTSMCBAgQECC2AQIECBCoEhAgVWwaESBAgIAAsQ0QIECAQJWAAKli04gAAQIEBIhtgAABAgSqBARIFZtGBAgQICBAbAMECBAgUCUgQKrYNCJAgAABAWIbIECAAIEqAQFSxaYRAQIECAgQ2wABAgQIVAkIkCo2jQgQIEBAgNgGCBAgQKBKQIBUsWlEgAABAgLENkCAAAECVQICpIpNIwIECBAQILYBAgQIEKgSECBVbBoRIECAgACxDRAgQIBAlYAAqWLTiAABAgQEyHa2gdftpvrp7UzZTAkQmFJAgEypu66+/7sbjpqvqy5GQ+BsBexMzrZ0Rw38rxFxgwA5yszCBAgcEBAg29hE/hMRXa3VfBs1N0sCkwvYmUxOvIoVdKev0mDUfBUlMQgC5y9gZ3L+NTw0g7si4uZsITU/JObvCRAYJWBnMorprBfKT185AjnrUho8gXUJCJB11WOK0QiQKVT1SYCA8+Eb2Aby6x+OQDZQcFMkMJeAI5C5pJdbjwBZzt6aCVy0gAC56PLG3RHxiGKKan7ZNTc7ArMJ2JnMRr3Iiv4dEQ8QIIvYWymBixcQIJdd4vICumsgl11vsyMwq4AAmZV79pV11z/S/3oSfXZ+KyRw2QIC5LLr2wVIOhLpTmWp+WXX3OwIzCZgZzIb9ewruicibtyt9X0R8fbd/5+75vldYOn/l9dkZoexQgIETiMw987kNKPWyxiB8gWKS73OvbyNOI39ZxFx25hJWIYAgfUKCJD11qZ1ZOULFNcUIGlujkZaK6w9gYUFBMjCBZhw9fn1j+t3O+y0urlrngfXRyPizdmc03Mqj5zQQNcECEwoMPfOZMKp6DoT+FdEpNBIP4+JiD+sIEDujIhX7Mbk9fI2VwIXICBALqCIPVPo+4DU0qew/hIRD9+N9Y/ZkUd63fyjLrMMZkXgsgUEyGXWN3/+o7vraekASaHWHRUldUchl7ntmdWGBATI5RX71oj46W5a6VTWg4rTRnPXvC/M0pD+lB2RzD2my6u6GRFYQMAv7gLoE69y6PvnSx+B9N11tdSYJi6B7glsQ0CAXF6dh04NLbWzHjoCyU9j2Q4vbzs0ow0I+MW9jCL3vfOq/Be/ALmMWpsFgdUICJDVlKJpIH1Pe98bETdlvS4VIEOn1ByBNJVcYwLLCwiQ5WtwihH0BcgvIuIWAXIKXn0QINAnIEAuY7voC5A0s/zWWUcgl1FrsyCwGgEBsppSNA1kKEC600TpWRAB0kSsMQECpYAAOf9t4ksRcXsxjedFxDcHpjZ3zfPP6ubr/kn2Rt65x3T+VTcDAisQ8Iu7giI0DmHfd8/X8EnbP0fEw3ZzzLc3T6I3Fl5zAksLCJClK9C+/jIkytt3y4D5QES8rX21o3v4RkS8sAiQ9Abe9D6s/BTb6A4tSIDAOgQEyDrq0DKK8vpH+c6p1Hd6tUl6xUn3M/e3OMrrL/tu7W2x0JYAgRkFBMiM2BOtqgyQoZr2XWh/eUR8eaJx5d2WAeL01QzoVkFgagEBMrXwtP3n3/3o1nQoQNLOO19mjs/L5gHyuYh49W6wv4+Ix05LpHcCBKYSECBTyc7Tb3lUse/UVL4TL6+L9J32OuUM8nU7fXVKWX0RWFBAgByP33dnU35t4Z8R8ZDjuz26xS8j4klFq/yjTWWH5WmkOa+L5Ove93LFoxE0IEBgOQEBMt5+X3AM9TLlv+yPvUV36EHCsddQxktdu2S3jr9n4XpHRHykpVNtCRBYVkCA7Pf/QUQ8rbhmUFuxU9/51HdRfF899z2JXobRqa+LHDvWWmPtCBCYUUCA9GP/KiKe0BMcY44o0mmkGw+ETtqh/iYinlhZ676jj0MBdehVJlNeFykDJJ3me3Dl3DUjQGAlAgLk2kL07ZzHBEdfSb8WES8aESZp5919enbMptH3L/p3RsR79zQ+FCCp6VTXReY4TTbGzTIECJxQQIAMn69Pf1MbHEMlGnMd5VBN8iOF/JbcQ+3GBEg37nyHf+jIZszmeOr+xqzTMgQITCxwaKcz8epX2f0xO9qWCfS9w6rrb8y1jHzdY3byx86rDLuWbSUPkM9HxGta4LQlQGAdAi07hXXM4PSjOHZHe4oRpAcC0yvX83r01SbfqafrCN1przFHSjXzKkPkixHxqiMnnPcxJuiO7N7iBAgsJSBAhk9hpSOEB85cmHKHfXdEpBcPpp/y1FX6b139xtSxJkDK9aY/35O9XfcQTwq53HDMOA/16e8JEFiJgF/o4QDJd9Bzlqs8tZWOTlKdrs8Gkf6cnxYaU8faAEmrTXeW5d9XHxOud0XEzQXcmHHOaW1dBAg0CPiFvhYv/1fzmB1lA/9g0753XHULdzU79onulgBJ6/5qRLw0G3F3OupbEfHsXcglu3/sTq3d0DM729sUW4s+CSwk4Be6H/7Yf91PUb701Hb5rMTvIuJxxemsfa8vycfVGiCpr9dGxGcmmGwaWwrN7199J+Stu7CaYDW6JEDglAICpF8zPwpZ6sLvZ3vuVurGUhNwNQHyrt3Hp7ovCp5y2xvTV/ro1KPHLGgZAgTmFxAgw+ZL3j005nmRNPL0PfRXjtxsxgRIevDx+ZU3D6R3W304G8t3I+I5uz93607zGvpJd6H1/aQjk29HxAtGztNiBAjMJCBA9kOXIZL+POWdWX3XPvqOOtKojz0y6guQ9MqV9M3yoZ13rpNOlb3n6jUt78/+41DQlUcOY8Kr6/YlEfHBiHhWceNAer1M+vjVJ65C7gsz/X5YDQECewQEyOHNY2gnmXaKd0bE7Ye7OLhE3+mq1Cj/V3wXGnlnb4qIjx/s/f4Fyp34vgcZ07LpXV2vj4ivHOi/7Kcv2Lp1p+s6fRfXh1bx44h4cnEt6NcN7xAbSWUxAgTGCAiQMUr//wxGX4u0g6w9OukLqL67v4Z2+J+MiDeOmEa3E09HOeVRVBrDDyPimSP66RZ5x9WRy7sH3vNVPth47B1j5TDSEcdtEfGdiPhYRKQHGv0QILCwgAA5vgB9T42XvaQdZrrt9WV7ut93umoopLr/nvrPa3dv8ZzGofbd3/88Im49kmAoOMox5UcirQFy5BAtToDAHAICpE053Xb6jBN9L+R7u+cp+kaUH6V8/eri+YuLW3lTm/T8xdCXENN3TZ6edZxODT31yKnvC478Gkp+h1jLXWNHDs/iBAjMLSBATiu+77rC0JoOvccqvTokXexOP+X1hfIoZujBx5rbfrvxjg2OfH5liKS/O+a1K6etit4IEJhEQIBMwnpfp+mIIF1rGDIeexfVoZ1/+b6pMpBq36pbExy55tDNB7a56bY5PROYVcAv86zcVSvrAmTfa1X+Vpy+ykMkD6D8SGBoMK3BcShEbHNVm4FGBNYn4Jd5fTUpRzT2GYr0HfNbssZDz48M1fyUwbEvRGxz69/mjJDAKAG/zKOYFl1obICkQT43ItLLDbuf8s6oYyYy9hTbmD7z01mfurpl+A1jGlmGAIF1CwiQddcnje6YAMmDo3ZmpwyO2jFoR4DAGQgIkPUXqSZA8uAZO0PBMVbKcgQI3CcgQNa/IdQGSBki+eksdV9/3Y2QwOoF7EhWX6KqU1jdrJ4SET/qmeLjI+K365+6ERIgsGYBAbLm6tw/tpYjkNS+fE6k63PMG3jXr2OEBAgsJiBAFqMfveLuGxotO/y+h/rUfnQJLEiAQJ+Anch2totjHyjcjoyZEiBQJSBAqtjOslF6Y+9Ds5Hve7L9LCdo0AQIzCsgQOb1Xnpt+cse3ba7dDWsn8CZCwiQMy9gxfAPvZyxoktNCBDYooAA2V7V07fNb9pN21HI9upvxgROJiBATkZ5Vh05CjmrchksgXUKCJB11mXqUeUforINTK2tfwIXKmDncaGFHTGt1gcUR6zCIgQIXLKAALnk6u6f21t2f/2h7RKYOQECLQICpEVPWwIECGxYQIBsuPimToAAgRYBAdKipy0BAgQ2LCBANlx8UydAgECLgABp0dOWAAECGxYQIBsuvqkTIECgRUCAtOhpS4AAgQ0LCJANF9/UCRAg0CIgQFr0tCVAgMCGBQTIhotv6gQIEGgRECAtetoSIEBgwwICZMPFN3UCBAi0CAiQFj1tCRAgsGEBAbLh4ps6AQIEWgQESIuetgQIENiwgADZcPFNnQABAi0CAqRFT1sCBAhsWECAbLj4pk6AAIEWAQHSoqctAQIENiwgQDZcfFMnQIBAi4AAadHTlgABAhsWECAbLr6pEyBAoEVAgLToaUuAAIENCwiQDRff1AkQINAiIEBa9LQlQIDAhgUEyIaLb+oECBBoERAgLXraEiBAYMMCAmTDxTd1AgQItAgIkBY9bQkQILBhAQGy4eKbOgECBFoEBEiLnrYECBDYsIAA2XDxTZ0AAQItAgKkRU9bAgQIbFhAgGy4+KZOgACBFgEB0qKnLQECBDYsIEA2XHxTJ0CAQIvA/wDK6KmmHufiYQAAAABJRU5ErkJggg==</v>
+      </c>
+      <c r="Y9" t="str">
+        <v>not interested</v>
+      </c>
+      <c r="Z9" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="AA9" t="str">
+        <v>2025-07-20</v>
       </c>
     </row>
     <row r="10">
@@ -751,34 +769,34 @@
       <c r="U10" t="str">
         <v>8945</v>
       </c>
-      <c r="Y10" t="str">
+      <c r="AB10" t="str">
         <v>123456789</v>
       </c>
-      <c r="Z10" t="str">
+      <c r="AC10" t="str">
         <v>2025-06-01</v>
       </c>
-      <c r="AA10" t="str">
+      <c r="AD10" t="str">
         <v>8945</v>
       </c>
-      <c r="AB10" t="str">
+      <c r="AE10" t="str">
         <v>12</v>
       </c>
-      <c r="AC10" t="str">
+      <c r="AF10" t="str">
         <v>1w3</v>
       </c>
-      <c r="AD10" t="str">
+      <c r="AG10" t="str">
         <v>5</v>
       </c>
-      <c r="AE10" t="str">
+      <c r="AH10" t="str">
         <v>98</v>
       </c>
-      <c r="AF10" t="str">
+      <c r="AI10" t="str">
         <v>32</v>
       </c>
-      <c r="AG10" t="str">
+      <c r="AJ10" t="str">
         <v>2025-06-01</v>
       </c>
-      <c r="AH10" t="str">
+      <c r="AK10" t="str">
         <v>2025-06-10</v>
       </c>
     </row>
@@ -878,34 +896,34 @@
       <c r="U12" t="str">
         <v>0098</v>
       </c>
-      <c r="Y12" t="str">
+      <c r="AB12" t="str">
         <v>13542</v>
       </c>
-      <c r="Z12" t="str">
+      <c r="AC12" t="str">
         <v>2025-06-01</v>
       </c>
-      <c r="AA12" t="str">
+      <c r="AD12" t="str">
         <v>0098</v>
       </c>
-      <c r="AB12" t="str">
+      <c r="AE12" t="str">
         <v>12</v>
       </c>
-      <c r="AC12" t="str">
+      <c r="AF12" t="str">
         <v>1w3</v>
       </c>
-      <c r="AD12" t="str">
+      <c r="AG12" t="str">
         <v>5</v>
       </c>
-      <c r="AE12" t="str">
+      <c r="AH12" t="str">
         <v>97</v>
       </c>
-      <c r="AF12" t="str">
+      <c r="AI12" t="str">
         <v>35</v>
       </c>
-      <c r="AG12" t="str">
+      <c r="AJ12" t="str">
         <v>2025-05-30</v>
       </c>
-      <c r="AH12" t="str">
+      <c r="AK12" t="str">
         <v>2025-06-01</v>
       </c>
     </row>
@@ -1113,9 +1131,74 @@
         <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAZAAAACWCAYAAADwkd5lAAAAAXNSR0IArs4c6QAAEXdJREFUeF7tnUnvLkUVh38gyCAKiCBGAoQoigsNxkhcOC0cAoEv4MK4MyZuTIwLiHEhG+PChS7cuDD6AVDBBE0UF0ZNnBaiaAwgGkBxiqByEfVf0A2Hvj3U1NXV1c+bkHsvbw3nPOe89esauvsM8YEABCAAAQhEEDgjog5VIAABCEAAAkJASAIIQAACEIgigIBEYaMSBCAAAQggIOQABCAAAQhEEUBAorBRCQIQgAAEEBByAAIQgAAEogggIFHYqAQBCEAAAggIOQABCEAAAlEEEJAobFSCAAQgAAEEhByAAAQgAIEoAghIFDYqQQACEIAAAkIOQAACEIBAFAEEJAoblSAAAQhAAAEhByAAAQhAIIoAAhKFjUoQgAAEIICAkAMQgAAEIBBFAAGJwkYlCEAAAhBAQMgBCEAAAhCIIoCARGGjEgQgAAEIICDkAAQgAAEIRBFAQKKwUQkCEIAABBAQcgACEIAABKIIICBR2KgEAQhAAAIICDkAAQhAAAJRBBCQKGxUggAEIAABBGQ/OfBfScN4/U/SuZJO7ccNLIUABFohgIDsI5L/kfSiGVOdkJy5D1ewEgIQaIUAArKPSDqB8PkQTx9KlIEABLIQYMDJgnHVRuzs42lJZw16s+LCTGTVUNA4BCBgCSAg9eeDFYipePmUqd9TLIQABHZFAAGpO1y3SLqjM3Fs9mGt70VkbzEdOxzg/GI2VXduYh0ETjvVA5K6CNjBdUkY9iggU+LRRwERqSsfsQYCLyCwNCiBa1sCvSj4DKR7E5AnJb3YA6+P7x7NUAQCEMhNAAHJTTRfe27Jqj+a+3lJH11oem8CsrRvY2cniEi+vKIlCGQjgIBkQ5m9oZDZR79n4P7cQ0yvlXSfx95OyBJe9gDQIAQgME9gD4PNEWP4Ckl/6hx3Sz3ubvOlz55mICHC0Pvl6szdTLnEh+8hAIHMBBCQzEAzNWeXr3xi9E9J53V9+5TPZGZ0MyGiEDoTizaKihCAQBiBPQw2YR61UTrkCt15HFp+S0qhti7tlWzpC31D4NAEEJA6wx86aO7pKj3U1lDBqTOiWAWBBgkgIHUGNWSQtQOsW8p6SZ0uPWOVfSyLb+6FLudV7D6mQaAtAr4/4ra8rt+bmD0C51Xt8QwRxj5KP5f0xu4ftftXf2ZhIQQyEuAHmRFmpqb+ZU5dXSrpsZl27ezjKc8b8zKZGdzMvZKu62o9IekCzxYsD/LVExrFIFCCAD/IEpTD+ghZ8w/dKwmzJG/pEL9szyxh5Y0DrUEgGwEEJBvKbA35LvPYAdntLZydzYJ1GooVu1jhWccLWoUABJ4jgIDUlQz/lnROZ5Jbujl/wrwHJF1lvttDHH2FcegyAlJXjmINBBCQSnPAd7C0V/PujvXLKvWnN+thSZd3/3hE0qsC7PVlEtAkRSEAgRwE9nDlmsPPvbThc5VuB9S9PN4jRQR8mOwlvtgJgaYIICB1hbMfLOeWr2L3Erb0NMVmBGTLyNE3BGYIICB1pcfSAxHtQPygpKvrMn/SmhQRSKm7EzyYCYF9EkBA6orbnIDYu7j3snTV0+39Ct3/cPVDbqqsK5pYA4HGCSAgdQV4TkBSloG29nJpZjVnX1+39hslt2ZM/xAoTgABKY58tsOpgdbeTLfHgTRUQJy/LjfH8pOcrStnsebABPgx1hX8qYF2z7MPuww1l2/2pFZKVMjpFHrUhUAAAX5sAbAKFO2Fwl2Bn9X1ZwfWudNZuc3LKVpzM5BcwtH7T07nzgTag8AEAX5sdaXGcNC+WdLXOhPdd2cWNDeHgAzFYZhvw+9dn+4/9+raYf/233MYyOmCSUJXxybAj62u+NuTVqe651v1MbpS0kMFzbUDtp0R+ZowNrMYiuDUEd2YpwyH7rP4+kE5CECAGchucsAOqr14lJ59jA3+w4uNpfszpmYM9gjy2KBv+w7xGwHZTYpjaCsEmIHUF0mfwXttq8cG/+ETf22ZsYHeDujD9qwwTvkSIh7uTYzndQ2R02tnB+1DgB9btTlgB0NnZMhAmsupqcHfDs5DUXD/dpv8/St15wTE2enamtpAD/U5x35NLna0A4HDEOBqrc5Qjw3OW2ygDwf5MQFxts7lkfuu98cJRu9Hv68ytpEe4qut/y1J760zpFgFgfYIICD1xdTdKNgf4R1aV+oYr509vFzSnztD7MzAlpk7imsFxP69n4WkRmBpLya1fepDAAITBBCQ+lJjuByTeoUe4+FwQ3rscexLG+B9v0MB+ZukC0cEKcbOlMfEx/RHHQhAwBBAQOpKB/vIEnt01s08zh2YuuZsZCgOdlbU2xVy6mlOkGIfzfJDSW/NJER1ZQHWQGAnBBCQegL1R0mXLoh7qdnImDgMZ0YpAuLcTN34Tq1fT+SxBAI7JYCA1BM4OyB+UdKHJ0wbm424d6n3x1hzeDQmDvYmR9uHTw6NtWdnW/dLuibAcHtSzf29P/kV0ARFIQCBVAI+P/7UPqi/TMDOLHzv+l5zNjI24D8m6ZIRV3xyaGq2Yk9nuceX+H5SZh9f7Tpxf97l2yHlIACB0wn4/Pjhti4BezUdev/D2Gzk75IuSjR5bMC/UdKdg3Z97V0SEN92XPexx3Yf72zvZyuPSro8kRPVIXBoAgjI9uFPuZrurR/ORlLfWDi3vxFj75KAOD98czH22K612/X3Pkl3bx9+LIDAfgn4/mj362Hdlsc8NHDKo/7hi/33bsD82Mls5HMRCJY2yG+S5E5P+Q7AfXvD5bnQY7ih5a3rvQ1u5uH+e1MEF6pAAAKGAAKyXTrYAT9kCWfO4k+dLPF8cnA1P3yGlY/HSwLi08bY4D2cadiN9KVc/I6kd3WNhvKy954s9RPqG+UhcFgC/Ji2C33MUpCvtXZgdnVCB9zcAmLtsSfG7pV0XefU0n0tsbysULu/n+MLkXIQgMA8AQRkmwwp8ZZBe9U9FJGlhxjmFpC+/zEx89nTcBvg/eZ3yLHd4ftVEI9t8p1eGyWAgJQPrB3UQmcGMdamvDI2Z35M7V/47GvEzD4s55hlvBjW1IHAoQjkHCAOBS7SWXe89q+mbin+wxNIvubntm9stuGWtPqZwVh/VmDuMfsgcz7YOoiHb7QpB4FAArkHiMDuD1fcDmy3nbyy9vYCBHxeLWvN8JkRxJo91bbPsWHf2RriERsd6kEgkAACEggsobjdSE69T8PXjLnlq7kBeY09EGfzI5Je2RnfM5gTrFAxs+0z8/DNEspBIJIAAhIJLrDa9ZJ+0tXxvZIO7OK04nbZyvZpB+UpW9YSEGfk3HKazcfvSnpnALP3S/rmBsuDqXGiPgR2SwABKRM6O2jeIOlHK3e7JBJL368pIHMvzLL5GLpxHlp+5RDQPATaJ4CArB/j0ktX7llYL/O4Ep8TkdA7zUMpLgmYfcaXO8L70oUOHpJ0RVfGibMTaT4QgMDKBBCQdQH/Q9IFAcswOawJuRIvcT9KjE8hPrhlLrfc5T6l9pZifKIOBJojgICsG1I7ELob4dxNcGt+7L0PvoOpz418a9o8bDv02G6I2JT0g74g0DwBBGS9EG9xnDRmMA096bQeMekWSXcEzNgekHRVV97NQt69pnG0DQEIvJAAArJORtg1/FKnruzsw/elVM77JySd32EIqbcGuRAxe5uk77N0tUYYaBMCfgQQED9OoaViZgKhfQzLp/SZUjfV7r6+e1mVe2mV+/iIrrX5Yknu2V98IACBggQQkPywt1i66gdd92fMLMLOXrbKiRAR+42k13ShY+kqfw7TIgS8CGw1WHgZt8NCT0p6ccBVdE4XU+/dSK2f4ot92q5bUutPro21+QZJv+i+8D0okGIbdSEAgQkCCEje1Ai5is7b8/N3eMfGdEsBCeHG0lXuzKE9CEQSiB1sIrtruppdunIzkXMLe5sqAKn1Y9213O6S5G5inPr8StLrWLqKRU09COQlgIDk4Wkfz+GzAZyn1xe2kioAqfVjfAo5tsvSVQxh6kBgRQIISB64IUsweXo8vZVUAUitH+NXyLHdGhjH+EgdCDRLAAFJD20tjwNJuaM8ZCBPJ/ZsCyFP23VPMnZPNO7rccNgrijQDgQSCCAgCfAklX497Zy1wwcUupsZ+/eIz9WzPrhypXIiZEbRl+XUVVq+UhsCWQmUGiyyGl1JY1dKetDYUgPL4Quk3MA7JyRjL5wq4Yd7Jth5HbulY7shQlNJamAGBI5BoMRg0SpJO/guDYIlGcy9hXDOjpgbEGP98hUFezjh25LeE9sh9SAAgfwEEJBwpvYR7a52rcsqIUJS8uSY79N2fyvpmi48JcUtPCOoAYGDEkBAwgJvXw7lapYceMMsfb70lJBsZbvPZv9nTh7y+PHKlgdj+VMPAs0SQED8QzsciGudefh7VL6k72kv3yWu8h7QIwQg8BwBBMQvGU5JOtsUda+NvcivKqU6Ar7Hdq14uJnIJyAIAQjUSQAB8YuL75WzX2vHLOUzq7Cb5u6E29XHRIXXENgHAQTEL04+6/Z+LR2zlH3B1tSJNbtp7u5NsTO+Y1LDawhUTgABmQ+QvWp2Jd1A2L+9r/LQVmXe0uzj05JuNRaTl1WFD2MgME6AH+o4l7GTS1udWtp77voc210SmL0zwH4INEkAATk9rBdOvB4VVnE/gaXlPzbN47hSCwKbE2BQ9JuBwCkuVZcOH9hN8/vNjYNxvVELAhAoSoCBsSjuQ3V2p6QbO4/Hlv9+Lem13fdsmh8qNXC2FQIISCuRrM+PuX0N7jSvL15YBIFgAghIMDIqeBB43DxKfnhs99WSfm/auELSHzzapAgEIFAZAQSksoA0Ys7c7MN+d/vJO1Vua8Rn3IDA4QggIIcL+eoO243zuyTdZHq0L6+6T9LrV7eGDiAAgdUIICCroT1kw7ecvHr2js7z4cb5w5Iu775j0/yQ6YHTrRFAQFqL6Lb+2NnHWyT9uDPnK5I+YEwj77aNE71DIAsBfshZMNKIpKlju++QdI8hdKmkxyAGAQjsnwACsv8Y1uLB1Ma5/f/uJVGfrcVg7IAABNIIICBp/Kj9LIGpY7t2Seunkt4MMAhAoB0CCEg7sdzSk7HZh313PE8x3jI69A2BlQggICuBPVCzY8d2vyfp7R0DnmJ8oGTA1WMRQECOFe/c3o4d2/2QpC+Zjsix3NRpDwKVEODHXUkgdmrG8NjuLyW5R5f0HycwX9+pb5gNAQgsEEBASJFYAmPHdu1eyDdO7gO5ObZx6kEAAvUTQEDqj1GtFg43zk+Z95j/RdIltRqOXRCAQB4CCEgejkdrxQnExZ3TbsnKPU332u7fbJofLRvw97AEEJDDhj7J8eETdW81rZFTSWipDIH9EODHvp9Y1WLp8Nhu/9ZBZx/5VEuUsAMCBQjwgy8AuaEuLpDkbhB0HzcLsfnzZUkfbMhXXIEABBYIICCkSAgBO/uwAvI7SVeFNERZCEBg/wQQkP3HsJQHH5H0hZHO2DQvFQH6gUBlBBCQygJSsTl29mHNJIcqDhqmQWBNAvz416TbTts/kHTDiDvkTzsxxhMIBBNgAAhGdsgK9thuD+BnJ6+vvf6QNHAaAhB4hgACQiIsEXhU0mWDQk9LOmupIt9DAAJtE0BA2o5vDu+Gsw82zXNQpQ0INEAAAWkgiCu7YAUE8VgZNs1DYE8EEJA9RWsbW3sBQTy24U+vEKiWAAJSbWiqMawXEHKlmpBgCATqIMCgUEccarbiJklPSbq7ZiOxDQIQKE8AASnPnB4hAAEINEEAAWkijDgBAQhAoDwBBKQ8c3qEAAQg0AQBBKSJMOIEBCAAgfIEEJDyzOkRAhCAQBMEEJAmwogTEIAABMoTQEDKM6dHCEAAAk0QQECaCCNOQAACEChPAAEpz5weIQABCDRBAAFpIow4AQEIQKA8AQSkPHN6hAAEINAEAQSkiTDiBAQgAIHyBBCQ8szpEQIQgEATBBCQJsKIExCAAATKE/g/snCztQ0qv3sAAAAASUVORK5CYII=</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>CMP-015</v>
+      </c>
+      <c r="B16" t="str">
+        <v>diode</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Issued Component</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E16" t="str">
+        <v>2025-07-20</v>
+      </c>
+      <c r="F16" t="str">
+        <v>akshaya</v>
+      </c>
+      <c r="G16" t="str">
+        <v>12</v>
+      </c>
+      <c r="H16" t="str">
+        <v>diode</v>
+      </c>
+      <c r="I16" t="str">
+        <v>23317909</v>
+      </c>
+      <c r="J16" t="str">
+        <v>C:\fakepath\Admit Card (3).pdf</v>
+      </c>
+      <c r="K16" t="str">
+        <v/>
+      </c>
+      <c r="L16" t="str">
+        <v>project-work</v>
+      </c>
+      <c r="M16" t="str">
+        <v>akshaya</v>
+      </c>
+      <c r="N16" t="str">
+        <v>1</v>
+      </c>
+      <c r="O16" t="str">
+        <v>76889</v>
+      </c>
+      <c r="P16" t="str">
+        <v>factory</v>
+      </c>
+      <c r="Q16" t="str">
+        <v>233e5</v>
+      </c>
+      <c r="R16" t="str">
+        <v>e45r</v>
+      </c>
+      <c r="S16" t="str">
+        <v>2</v>
+      </c>
+      <c r="T16" t="str">
+        <v>1</v>
+      </c>
+      <c r="U16" t="str">
+        <v>5567</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AH15"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AK16"/>
   </ignoredErrors>
 </worksheet>
 </file>